--- a/zero-ecosystem/zero-plugins-extension/zero-exmodule-ambient/zero-exmodule-ambient-domain/src/main/resources/plugins/zero-exmodule-ambient/modulat/SSM_ZERO-F.SYS.xlsx
+++ b/zero-ecosystem/zero-plugins-extension/zero-exmodule-ambient/zero-exmodule-ambient-domain/src/main/resources/plugins/zero-exmodule-ambient/modulat/SSM_ZERO-F.SYS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Runtime.Ambient.DB/src/main/resources/plugins/zero-extension-runtime-ambient/modulat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/app-zero/zero-ecotope/zero-ecosystem/zero-plugins-extension/zero-exmodule-ambient/zero-exmodule-ambient-domain/src/main/resources/plugins/zero-exmodule-ambient/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE913D25-528E-8148-9013-5601AE96A03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE421F31-533A-6944-AA3B-770627E10C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7120" yWindow="2420" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -335,19 +335,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -355,7 +355,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -363,7 +363,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -474,7 +474,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -803,21 +803,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="2" width="53.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -825,14 +826,14 @@
     <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -849,7 +850,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -878,7 +879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -907,7 +908,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
@@ -932,7 +933,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -985,7 +986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="7" t="s">
         <v>55</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="7" t="s">
         <v>56</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="7" t="s">
         <v>57</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="7" t="s">
         <v>68</v>
       </c>
